--- a/documents/Miro_E2E_TestCases.xlsx
+++ b/documents/Miro_E2E_TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nisha\Automation\Miro-Selenium-Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nisha\Automation\Miro-Selenium-Java\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D78B792-57D6-4494-AFA7-2531F2485C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AA6E2-6911-4DA8-90D1-224FC337F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{646E2560-1C32-4597-AD8C-19D80DE133DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
   <si>
     <t>TestCase Feature</t>
   </si>
@@ -228,12 +228,6 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>TC001_SignUpFreeFromMenu.java</t>
-  </si>
-  <si>
-    <t>TC002_SignUpFreeBottom.java</t>
-  </si>
-  <si>
     <t>1. Open the URL
 2. Click on the "Start a whiteboard" button
 3. Signup page "Get Started free today" should display
@@ -343,9 +337,6 @@
     <t>No Strong password</t>
   </si>
   <si>
-    <t>other combination of no data provided</t>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
@@ -422,6 +413,24 @@
   </si>
   <si>
     <t>Working as expected.</t>
+  </si>
+  <si>
+    <t>so on…...</t>
+  </si>
+  <si>
+    <t>file : Testcases/SignupUsingSocialTest.java
+Function: TC01_SignupUsingExternal_Google()</t>
+  </si>
+  <si>
+    <t>file : Testcases/SignUpTest.java
+Function: TC001_SignUpFreeFromMenu()</t>
+  </si>
+  <si>
+    <t>file : Testcases/SignUpTest.java
+Function: TC002_SignUpFreeBottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So on…..</t>
   </si>
 </sst>
 </file>
@@ -835,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2729D176-347F-479D-8283-7E725A1B6EB0}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -847,7 +856,7 @@
     <col min="4" max="4" width="26.08984375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -861,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -942,10 +951,10 @@
         <v>17</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>33</v>
@@ -979,10 +988,10 @@
       <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="G9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1007,10 +1016,10 @@
       <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="G10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1076,18 +1085,20 @@
         <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1096,22 +1107,22 @@
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1122,22 +1133,22 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1148,22 +1159,22 @@
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1174,22 +1185,22 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1206,7 +1217,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>39</v>
@@ -1224,7 +1235,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>40</v>
@@ -1242,7 +1253,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -1260,7 +1271,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>42</v>
@@ -1278,7 +1289,7 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>43</v>
@@ -1296,10 +1307,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1314,10 +1325,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1332,7 +1343,9 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1366,22 +1379,22 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1389,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1431,7 +1444,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,7 +1454,7 @@
     <col min="5" max="5" width="10.90625" customWidth="1"/>
     <col min="9" max="9" width="11.08984375" customWidth="1"/>
     <col min="10" max="10" width="11.6328125" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
@@ -1449,47 +1462,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" s="1" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1501,12 +1514,12 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>

--- a/documents/Miro_E2E_TestCases.xlsx
+++ b/documents/Miro_E2E_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nisha\Automation\Miro-Selenium-Java\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AA6E2-6911-4DA8-90D1-224FC337F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFE7930-670E-4E9E-9F2D-60F9E5A43416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{646E2560-1C32-4597-AD8C-19D80DE133DC}"/>
   </bookViews>
@@ -310,9 +310,6 @@
     <t>User should be able to get sign up with Apple ID account</t>
   </si>
   <si>
-    <t>User is able to get sign up with Apple ID account</t>
-  </si>
-  <si>
     <t>valid data</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t xml:space="preserve"> So on…..</t>
+  </si>
+  <si>
+    <t>User is able to get sign up with Apple ID account.</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1017,7 +1017,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1097,7 +1097,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>21</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>22</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>23</v>
@@ -1174,7 +1174,7 @@
         <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>24</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>39</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>40</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>42</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>43</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1344,7 +1344,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1379,22 +1379,22 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1402,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1467,42 +1467,42 @@
         <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1514,12 +1514,12 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
